--- a/Code/Results/Cases/Case_9_15/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_9_15/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.50205000056613</v>
+        <v>19.72563410010233</v>
       </c>
       <c r="C2">
-        <v>15.29473111853469</v>
+        <v>16.03701257495968</v>
       </c>
       <c r="D2">
-        <v>3.708970045537919</v>
+        <v>3.799978134166595</v>
       </c>
       <c r="E2">
-        <v>13.85138581063575</v>
+        <v>13.8414369079382</v>
       </c>
       <c r="F2">
-        <v>26.01170161556785</v>
+        <v>24.59794122836047</v>
       </c>
       <c r="G2">
-        <v>37.15444359515389</v>
+        <v>34.11942348662071</v>
       </c>
       <c r="H2">
-        <v>2.240775679078896</v>
+        <v>2.211071501993761</v>
       </c>
       <c r="I2">
-        <v>3.198690388359167</v>
+        <v>3.17233628323922</v>
       </c>
       <c r="J2">
-        <v>11.37441706548583</v>
+        <v>11.38331673429506</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>13.84710541517605</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>9.864472558480575</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>17.81648968804104</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>12.11074180376959</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>17.73563168302392</v>
+      </c>
+      <c r="R2">
+        <v>12.01951814125562</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.12226483235377</v>
+        <v>18.45070298144662</v>
       </c>
       <c r="C3">
-        <v>14.3625541289276</v>
+        <v>14.98991326183489</v>
       </c>
       <c r="D3">
-        <v>3.679964311569405</v>
+        <v>3.74054475850623</v>
       </c>
       <c r="E3">
-        <v>13.12614966565899</v>
+        <v>13.14068549972603</v>
       </c>
       <c r="F3">
-        <v>24.85257637382109</v>
+        <v>23.60264455970342</v>
       </c>
       <c r="G3">
-        <v>35.2913725519787</v>
+        <v>32.53069327334848</v>
       </c>
       <c r="H3">
-        <v>1.996797502390542</v>
+        <v>1.981856170356493</v>
       </c>
       <c r="I3">
-        <v>2.982725936490353</v>
+        <v>2.987794433635105</v>
       </c>
       <c r="J3">
-        <v>11.10477321445667</v>
+        <v>11.14920525738132</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>13.86895211344154</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>9.526211872694567</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>16.76685757491653</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>12.27088913717467</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>16.70053296212687</v>
+      </c>
+      <c r="R3">
+        <v>12.16649995157181</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.22134888415562</v>
+        <v>17.61761102744027</v>
       </c>
       <c r="C4">
-        <v>13.7633474415201</v>
+        <v>14.31520834750578</v>
       </c>
       <c r="D4">
-        <v>3.661191593895694</v>
+        <v>3.703066072872152</v>
       </c>
       <c r="E4">
-        <v>12.66035858506422</v>
+        <v>12.69087516399211</v>
       </c>
       <c r="F4">
-        <v>24.12313371086002</v>
+        <v>22.97608744491415</v>
       </c>
       <c r="G4">
-        <v>34.10957873496241</v>
+        <v>31.525864007147</v>
       </c>
       <c r="H4">
-        <v>1.841989376989613</v>
+        <v>1.836275116724579</v>
       </c>
       <c r="I4">
-        <v>2.846481704794126</v>
+        <v>2.871413843894375</v>
       </c>
       <c r="J4">
-        <v>10.93955028906251</v>
+        <v>11.00312147243021</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>13.87865358513152</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>9.337071023160103</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>16.08942667301636</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>12.37003838946793</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>16.03220142908996</v>
+      </c>
+      <c r="R4">
+        <v>12.25805950747243</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.83276138908612</v>
+        <v>17.25797204421038</v>
       </c>
       <c r="C5">
-        <v>13.52104784227249</v>
+        <v>14.0408181540899</v>
       </c>
       <c r="D5">
-        <v>3.653830617305154</v>
+        <v>3.688325895975607</v>
       </c>
       <c r="E5">
-        <v>12.46551447195557</v>
+        <v>12.50283705814402</v>
       </c>
       <c r="F5">
-        <v>23.80820019591335</v>
+        <v>22.70434410667355</v>
       </c>
       <c r="G5">
-        <v>33.5943023969398</v>
+        <v>31.0858956600626</v>
       </c>
       <c r="H5">
-        <v>1.77735936529388</v>
+        <v>1.775477077773478</v>
       </c>
       <c r="I5">
-        <v>2.790332353834844</v>
+        <v>2.823807088024551</v>
       </c>
       <c r="J5">
-        <v>10.86755312948166</v>
+        <v>10.9386244659941</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>13.87380846644944</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.258017196636812</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>15.80432957350119</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>12.40972596154007</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>15.75090835654659</v>
+      </c>
+      <c r="R5">
+        <v>12.29520539037618</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.75780046568552</v>
+        <v>17.18838987242149</v>
       </c>
       <c r="C6">
-        <v>13.49094187660827</v>
+        <v>14.00520531162841</v>
       </c>
       <c r="D6">
-        <v>3.653249930666598</v>
+        <v>3.686821079116641</v>
       </c>
       <c r="E6">
-        <v>12.43295115761663</v>
+        <v>12.47146342579611</v>
       </c>
       <c r="F6">
-        <v>23.73904625022722</v>
+        <v>22.64333226222211</v>
       </c>
       <c r="G6">
-        <v>33.47801202685037</v>
+        <v>30.98365434192799</v>
       </c>
       <c r="H6">
-        <v>1.766231253836832</v>
+        <v>1.765021209107006</v>
       </c>
       <c r="I6">
-        <v>2.781525293081465</v>
+        <v>2.816832027811</v>
       </c>
       <c r="J6">
-        <v>10.84972530117258</v>
+        <v>10.92247378411281</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>13.86335970176383</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.236611121979427</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>15.75544987383273</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>12.41518888010904</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>15.70272043519647</v>
+      </c>
+      <c r="R6">
+        <v>12.30078563207844</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.19054049944854</v>
+        <v>17.5786689042668</v>
       </c>
       <c r="C7">
-        <v>13.78825456054907</v>
+        <v>14.32677793196569</v>
       </c>
       <c r="D7">
-        <v>3.662905940454657</v>
+        <v>3.707353153938048</v>
       </c>
       <c r="E7">
-        <v>12.6580179037882</v>
+        <v>12.69155622938103</v>
       </c>
       <c r="F7">
-        <v>24.07418514878314</v>
+        <v>22.90309128283608</v>
       </c>
       <c r="G7">
-        <v>34.02160448868668</v>
+        <v>31.52605749269654</v>
       </c>
       <c r="H7">
-        <v>1.840264622730349</v>
+        <v>1.834139105736385</v>
       </c>
       <c r="I7">
-        <v>2.846905559654483</v>
+        <v>2.872200158493746</v>
       </c>
       <c r="J7">
-        <v>10.92263383740452</v>
+        <v>10.92776192983063</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>13.84190937819389</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>9.301996206929068</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>16.08280566921524</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>12.36752101435992</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>16.02097422594392</v>
+      </c>
+      <c r="R7">
+        <v>12.25638831469841</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.00610741461234</v>
+        <v>19.23651014284405</v>
       </c>
       <c r="C8">
-        <v>15.01352636117351</v>
+        <v>15.67793353653831</v>
       </c>
       <c r="D8">
-        <v>3.70167505834391</v>
+        <v>3.789685803191948</v>
       </c>
       <c r="E8">
-        <v>13.6059513544509</v>
+        <v>13.61337643345642</v>
       </c>
       <c r="F8">
-        <v>25.55985671693168</v>
+        <v>24.11959690077024</v>
       </c>
       <c r="G8">
-        <v>36.41929351349212</v>
+        <v>33.74342847115699</v>
       </c>
       <c r="H8">
-        <v>2.15658385660343</v>
+        <v>2.130330343416054</v>
       </c>
       <c r="I8">
-        <v>3.125875747875281</v>
+        <v>3.109057585664389</v>
       </c>
       <c r="J8">
-        <v>11.26090312821929</v>
+        <v>11.09123927174124</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>13.78951644499091</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>9.676735769193492</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>17.45798987585898</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>12.16206436195038</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>17.36742730282901</v>
+      </c>
+      <c r="R8">
+        <v>12.06686850050638</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.18478408789824</v>
+        <v>22.16639778005527</v>
       </c>
       <c r="C9">
-        <v>17.15778337536486</v>
+        <v>18.07686510831493</v>
       </c>
       <c r="D9">
-        <v>3.766590276384955</v>
+        <v>3.931288172683586</v>
       </c>
       <c r="E9">
-        <v>15.30063779485308</v>
+        <v>15.25280985704945</v>
       </c>
       <c r="F9">
-        <v>28.39324760238273</v>
+        <v>26.54261484423209</v>
       </c>
       <c r="G9">
-        <v>40.93552126133611</v>
+        <v>37.66172925444772</v>
       </c>
       <c r="H9">
-        <v>2.739833918707947</v>
+        <v>2.67704539294677</v>
       </c>
       <c r="I9">
-        <v>3.644506314278407</v>
+        <v>3.550554572050871</v>
       </c>
       <c r="J9">
-        <v>11.95207779288896</v>
+        <v>11.63539227385676</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>13.73995487574206</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>10.62493152762297</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>19.89467832494203</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>11.76966616602454</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>19.76632812730513</v>
+      </c>
+      <c r="R9">
+        <v>11.70926946874862</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.23339845324181</v>
+        <v>24.01430425805932</v>
       </c>
       <c r="C10">
-        <v>18.58975410223883</v>
+        <v>19.60478879242543</v>
       </c>
       <c r="D10">
-        <v>3.822600262424313</v>
+        <v>4.059580583536781</v>
       </c>
       <c r="E10">
-        <v>15.96895428411419</v>
+        <v>15.891850372735</v>
       </c>
       <c r="F10">
-        <v>30.17064581996945</v>
+        <v>27.92594834531477</v>
       </c>
       <c r="G10">
-        <v>43.69296753408891</v>
+        <v>40.45065107665134</v>
       </c>
       <c r="H10">
-        <v>3.120867757781213</v>
+        <v>3.029991868508022</v>
       </c>
       <c r="I10">
-        <v>4.003382547566044</v>
+        <v>3.85300818440231</v>
       </c>
       <c r="J10">
-        <v>12.38199619322491</v>
+        <v>11.64604955230485</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>13.55754961615903</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>11.22420402906911</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>21.22482855358828</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>11.4735690425904</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>21.04909861939699</v>
+      </c>
+      <c r="R10">
+        <v>11.45313425510854</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.8743548020621</v>
+        <v>24.58252709146831</v>
       </c>
       <c r="C11">
-        <v>19.03244037612348</v>
+        <v>19.89791250668353</v>
       </c>
       <c r="D11">
-        <v>3.977459303091505</v>
+        <v>4.303820224776206</v>
       </c>
       <c r="E11">
-        <v>12.5026678046304</v>
+        <v>12.36141685202658</v>
       </c>
       <c r="F11">
-        <v>29.37512295691391</v>
+        <v>26.90897978279722</v>
       </c>
       <c r="G11">
-        <v>42.10186231186629</v>
+        <v>39.83530933176117</v>
       </c>
       <c r="H11">
-        <v>3.688945347952383</v>
+        <v>3.60560762578156</v>
       </c>
       <c r="I11">
-        <v>4.106165033260548</v>
+        <v>3.936722893126948</v>
       </c>
       <c r="J11">
-        <v>11.96500257213075</v>
+        <v>10.62486970056793</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>12.78524907153847</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>10.65560472658848</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>19.26804417356981</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>11.29731511343212</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>19.05059254374943</v>
+      </c>
+      <c r="R11">
+        <v>11.39586573733057</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.03092871877547</v>
+        <v>24.74369794073237</v>
       </c>
       <c r="C12">
-        <v>19.08286269505982</v>
+        <v>19.83672107550793</v>
       </c>
       <c r="D12">
-        <v>4.118278869516732</v>
+        <v>4.491783244965104</v>
       </c>
       <c r="E12">
-        <v>10.16988917575252</v>
+        <v>9.929965630627233</v>
       </c>
       <c r="F12">
-        <v>28.37347929471193</v>
+        <v>25.87869298360751</v>
       </c>
       <c r="G12">
-        <v>40.26128405730132</v>
+        <v>38.57307618696795</v>
       </c>
       <c r="H12">
-        <v>4.700774104360252</v>
+        <v>4.636435616364142</v>
       </c>
       <c r="I12">
-        <v>4.122679004909919</v>
+        <v>3.948577641488284</v>
       </c>
       <c r="J12">
-        <v>11.53608240079999</v>
+        <v>9.980147031003638</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>12.24688241923282</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>10.11016072832707</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>17.32654096119078</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>11.25773196634627</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>17.09727330480229</v>
+      </c>
+      <c r="R12">
+        <v>11.44396226862301</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.80038021249963</v>
+        <v>24.59858218415789</v>
       </c>
       <c r="C13">
-        <v>18.86984370053502</v>
+        <v>19.5547114354395</v>
       </c>
       <c r="D13">
-        <v>4.255950941909456</v>
+        <v>4.636295953372959</v>
       </c>
       <c r="E13">
-        <v>9.062220278914271</v>
+        <v>8.725547250239748</v>
       </c>
       <c r="F13">
-        <v>27.06377885882201</v>
+        <v>24.74801507171015</v>
       </c>
       <c r="G13">
-        <v>37.95511773099613</v>
+        <v>36.41906408925741</v>
       </c>
       <c r="H13">
-        <v>5.869732771907059</v>
+        <v>5.82296496528407</v>
       </c>
       <c r="I13">
-        <v>4.075131997800182</v>
+        <v>3.91011609994792</v>
       </c>
       <c r="J13">
-        <v>11.04201562334861</v>
+        <v>9.665285892407299</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>11.82850087449219</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>9.529311877133358</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.21942141794196</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>11.31196241982866</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>15.00936573115371</v>
+      </c>
+      <c r="R13">
+        <v>11.55486918512477</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.45544879609169</v>
+        <v>24.35071241863232</v>
       </c>
       <c r="C14">
-        <v>18.60627616643391</v>
+        <v>19.25983375567882</v>
       </c>
       <c r="D14">
-        <v>4.353321916906345</v>
+        <v>4.718203701322494</v>
       </c>
       <c r="E14">
-        <v>9.265733765590207</v>
+        <v>8.90938816120771</v>
       </c>
       <c r="F14">
-        <v>25.9805962997344</v>
+        <v>23.88454935439332</v>
       </c>
       <c r="G14">
-        <v>36.07957864025654</v>
+        <v>34.46601938302246</v>
       </c>
       <c r="H14">
-        <v>6.744503478212111</v>
+        <v>6.707938166430054</v>
       </c>
       <c r="I14">
-        <v>4.013963337878119</v>
+        <v>3.861686300164595</v>
       </c>
       <c r="J14">
-        <v>10.65992510135158</v>
+        <v>9.574050494958067</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>11.57847081910757</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>9.09688409810807</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>13.64313817527618</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>11.39517030396791</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>13.46011973726935</v>
+      </c>
+      <c r="R14">
+        <v>11.65854396723337</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.27916572519466</v>
+        <v>24.21479354232399</v>
       </c>
       <c r="C15">
-        <v>18.49297685369254</v>
+        <v>19.14584730100717</v>
       </c>
       <c r="D15">
-        <v>4.374933893608442</v>
+        <v>4.728244072414143</v>
       </c>
       <c r="E15">
-        <v>9.428788937798398</v>
+        <v>9.081296842151183</v>
       </c>
       <c r="F15">
-        <v>25.6347326930226</v>
+        <v>23.63365299721928</v>
       </c>
       <c r="G15">
-        <v>35.49285037121552</v>
+        <v>33.78267623917473</v>
       </c>
       <c r="H15">
-        <v>6.944177629387975</v>
+        <v>6.910384343392755</v>
       </c>
       <c r="I15">
-        <v>3.985212972338493</v>
+        <v>3.839495627172346</v>
       </c>
       <c r="J15">
-        <v>10.54833390096663</v>
+        <v>9.603659279096259</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>11.53081286869071</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>8.974541443064755</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>13.21911800078426</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>11.4299040434284</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>13.04851475332771</v>
+      </c>
+      <c r="R15">
+        <v>11.69144754700782</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.46103127036891</v>
+        <v>23.53719693686093</v>
       </c>
       <c r="C16">
-        <v>17.9488536514155</v>
+        <v>18.65714492638768</v>
       </c>
       <c r="D16">
-        <v>4.321660916335816</v>
+        <v>4.611369162544325</v>
       </c>
       <c r="E16">
-        <v>9.211745428758441</v>
+        <v>8.92379684857101</v>
       </c>
       <c r="F16">
-        <v>25.03749176859053</v>
+        <v>23.37902035828022</v>
       </c>
       <c r="G16">
-        <v>34.58422273010082</v>
+        <v>32.23132999133863</v>
       </c>
       <c r="H16">
-        <v>6.665396030511323</v>
+        <v>6.637634364045354</v>
       </c>
       <c r="I16">
-        <v>3.843609894779598</v>
+        <v>3.72623398035718</v>
       </c>
       <c r="J16">
-        <v>10.43792131091189</v>
+        <v>10.07709678058294</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>11.71334228454743</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>8.896844614670409</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>12.93640740864578</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>11.53131055230136</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>12.81426089390849</v>
+      </c>
+      <c r="R16">
+        <v>11.73717619054337</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.01082784485231</v>
+        <v>23.13048096878151</v>
       </c>
       <c r="C17">
-        <v>17.67056702849132</v>
+        <v>18.42444753064251</v>
       </c>
       <c r="D17">
-        <v>4.227157154942591</v>
+        <v>4.48436007305564</v>
       </c>
       <c r="E17">
-        <v>8.757833068726104</v>
+        <v>8.503724023188862</v>
       </c>
       <c r="F17">
-        <v>25.17761273398341</v>
+        <v>23.62783577333847</v>
       </c>
       <c r="G17">
-        <v>34.92752634834159</v>
+        <v>32.22687355143906</v>
       </c>
       <c r="H17">
-        <v>5.935187325931851</v>
+        <v>5.9076789518124</v>
       </c>
       <c r="I17">
-        <v>3.76695956092037</v>
+        <v>3.663822785715009</v>
       </c>
       <c r="J17">
-        <v>10.5611939383624</v>
+        <v>10.42707765763727</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>11.98445601999144</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>9.05602151005338</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>13.59472750878421</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>11.56500410284503</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>13.49014356750509</v>
+      </c>
+      <c r="R17">
+        <v>11.72699017305903</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.85719727688436</v>
+        <v>22.9554699523533</v>
       </c>
       <c r="C18">
-        <v>17.5791266840596</v>
+        <v>18.3966908748452</v>
       </c>
       <c r="D18">
-        <v>4.092488974906394</v>
+        <v>4.329974693556764</v>
       </c>
       <c r="E18">
-        <v>8.983236856899259</v>
+        <v>8.773281706645957</v>
       </c>
       <c r="F18">
-        <v>25.99925371374538</v>
+        <v>24.41475227024076</v>
       </c>
       <c r="G18">
-        <v>36.44588553924253</v>
+        <v>33.46329519243348</v>
       </c>
       <c r="H18">
-        <v>4.792378045072225</v>
+        <v>4.758839645049076</v>
       </c>
       <c r="I18">
-        <v>3.738910758008948</v>
+        <v>3.639013032806954</v>
       </c>
       <c r="J18">
-        <v>10.90870474768076</v>
+        <v>10.82605818911313</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>12.40362650199575</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>9.471898674030488</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>15.14896897662748</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>11.56279034446969</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>15.04519163432597</v>
+      </c>
+      <c r="R18">
+        <v>11.67635651489617</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.91998909593219</v>
+        <v>22.95550726977831</v>
       </c>
       <c r="C19">
-        <v>17.69229243155072</v>
+        <v>18.59034549564832</v>
       </c>
       <c r="D19">
-        <v>3.958443910967068</v>
+        <v>4.180842839941787</v>
       </c>
       <c r="E19">
-        <v>10.91191648844347</v>
+        <v>10.76668549626719</v>
       </c>
       <c r="F19">
-        <v>27.22071384159241</v>
+        <v>25.51486686372179</v>
       </c>
       <c r="G19">
-        <v>38.64086239808198</v>
+        <v>35.39516690193307</v>
       </c>
       <c r="H19">
-        <v>3.608598137964488</v>
+        <v>3.559915403976325</v>
       </c>
       <c r="I19">
-        <v>3.760741732173329</v>
+        <v>3.65740527880385</v>
       </c>
       <c r="J19">
-        <v>11.38081177955126</v>
+        <v>11.25461687234978</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>12.88759307718203</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>10.02445450499902</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>17.28567791652604</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>11.56157542977296</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>17.17274720394414</v>
+      </c>
+      <c r="R19">
+        <v>11.62061081478849</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.64918610859114</v>
+        <v>23.51268940238791</v>
       </c>
       <c r="C20">
-        <v>18.2900765942701</v>
+        <v>19.31433763762666</v>
       </c>
       <c r="D20">
-        <v>3.815366249766202</v>
+        <v>4.028971301308547</v>
       </c>
       <c r="E20">
-        <v>15.77494687731644</v>
+        <v>15.69740935239761</v>
       </c>
       <c r="F20">
-        <v>29.58735708545294</v>
+        <v>27.53253371157502</v>
       </c>
       <c r="G20">
-        <v>42.76269517187115</v>
+        <v>39.27985160307112</v>
       </c>
       <c r="H20">
-        <v>3.017567069957742</v>
+        <v>2.93597649749121</v>
       </c>
       <c r="I20">
-        <v>3.913353592306815</v>
+        <v>3.783681368929738</v>
       </c>
       <c r="J20">
-        <v>12.22162457838514</v>
+        <v>11.79350847053329</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>13.570173672198</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>11.02208862174954</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>20.86357826018112</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>11.54379073712702</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>20.7142607144057</v>
+      </c>
+      <c r="R20">
+        <v>11.51908378789684</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.19780737281323</v>
+        <v>24.75774241989606</v>
       </c>
       <c r="C21">
-        <v>19.36966981814415</v>
+        <v>20.30064807779164</v>
       </c>
       <c r="D21">
-        <v>3.836836044065737</v>
+        <v>4.139953226916169</v>
       </c>
       <c r="E21">
-        <v>16.99920927359766</v>
+        <v>16.95313623366638</v>
       </c>
       <c r="F21">
-        <v>31.22016074782713</v>
+        <v>28.42441700135627</v>
       </c>
       <c r="G21">
-        <v>45.35299416033968</v>
+        <v>43.09276042011174</v>
       </c>
       <c r="H21">
-        <v>3.344673691009386</v>
+        <v>3.231983349103353</v>
       </c>
       <c r="I21">
-        <v>4.194800700810114</v>
+        <v>4.008145051682744</v>
       </c>
       <c r="J21">
-        <v>12.66669180830618</v>
+        <v>10.91149078047363</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>13.38736673927794</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>11.44062547809104</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>22.29409932255403</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>11.33209221206632</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>22.03653498159194</v>
+      </c>
+      <c r="R21">
+        <v>11.32470266225647</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.17619804439587</v>
+        <v>25.5398582217951</v>
       </c>
       <c r="C22">
-        <v>20.01328503819811</v>
+        <v>20.86909841448453</v>
       </c>
       <c r="D22">
-        <v>3.853419591998659</v>
+        <v>4.220429758975181</v>
       </c>
       <c r="E22">
-        <v>17.53443631164933</v>
+        <v>17.50982853947202</v>
       </c>
       <c r="F22">
-        <v>32.2175787695646</v>
+        <v>28.93053229110962</v>
       </c>
       <c r="G22">
-        <v>46.91936068358689</v>
+        <v>45.52955842762714</v>
       </c>
       <c r="H22">
-        <v>3.54231752910075</v>
+        <v>3.409622544914255</v>
       </c>
       <c r="I22">
-        <v>4.371592724959615</v>
+        <v>4.147124365567312</v>
       </c>
       <c r="J22">
-        <v>12.93899470208496</v>
+        <v>10.27481048410684</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>13.24714310210295</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>11.69366531200902</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>23.04920063612975</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>11.19207759349522</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>22.71896140702222</v>
+      </c>
+      <c r="R22">
+        <v>11.20195796645623</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.67998253589649</v>
+        <v>25.16546827336329</v>
       </c>
       <c r="C23">
-        <v>19.64731609314862</v>
+        <v>20.56786958830245</v>
       </c>
       <c r="D23">
-        <v>3.842135768965023</v>
+        <v>4.167594551808374</v>
       </c>
       <c r="E23">
-        <v>17.25015526560374</v>
+        <v>17.20736611603355</v>
       </c>
       <c r="F23">
-        <v>31.72855632179592</v>
+        <v>28.75731857717699</v>
       </c>
       <c r="G23">
-        <v>46.16008164762626</v>
+        <v>44.13221840034961</v>
       </c>
       <c r="H23">
-        <v>3.438001097318863</v>
+        <v>3.316866043080743</v>
       </c>
       <c r="I23">
-        <v>4.276124056159281</v>
+        <v>4.071821024914058</v>
       </c>
       <c r="J23">
-        <v>12.81003034340077</v>
+        <v>10.75947042612886</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>13.36696758920336</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>11.6136098051156</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>22.6514698088324</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>11.26940268265542</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>22.36922741399</v>
+      </c>
+      <c r="R23">
+        <v>11.26630898283405</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.678630941619</v>
+        <v>23.53564909016687</v>
       </c>
       <c r="C24">
-        <v>18.2524492441894</v>
+        <v>19.28603482414026</v>
       </c>
       <c r="D24">
-        <v>3.801530425016085</v>
+        <v>4.009493119372024</v>
       </c>
       <c r="E24">
-        <v>16.13785635212322</v>
+        <v>16.06400783760727</v>
       </c>
       <c r="F24">
-        <v>29.76949650390198</v>
+        <v>27.7031763318601</v>
       </c>
       <c r="G24">
-        <v>43.09146549478211</v>
+        <v>39.56793525713852</v>
       </c>
       <c r="H24">
-        <v>3.034868846111435</v>
+        <v>2.952817136035004</v>
       </c>
       <c r="I24">
-        <v>3.91183691555531</v>
+        <v>3.779711086590808</v>
       </c>
       <c r="J24">
-        <v>12.2945990062101</v>
+        <v>11.86782072518896</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>13.66353377158266</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>11.12229529697907</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>21.08126315338616</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>11.55814822470701</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>20.93137416079246</v>
+      </c>
+      <c r="R24">
+        <v>11.5217390503647</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.33093906632767</v>
+        <v>21.39105114765315</v>
       </c>
       <c r="C25">
-        <v>16.64350392746645</v>
+        <v>17.51235792003357</v>
       </c>
       <c r="D25">
-        <v>3.753484573644903</v>
+        <v>3.896370769669693</v>
       </c>
       <c r="E25">
-        <v>14.86026531193354</v>
+        <v>14.82344947077947</v>
       </c>
       <c r="F25">
-        <v>27.57390621875529</v>
+        <v>25.86992608310427</v>
       </c>
       <c r="G25">
-        <v>39.62333398581813</v>
+        <v>36.40572900156573</v>
       </c>
       <c r="H25">
-        <v>2.584574897287526</v>
+        <v>2.532446460737659</v>
       </c>
       <c r="I25">
-        <v>3.5087117123919</v>
+        <v>3.438173256696813</v>
       </c>
       <c r="J25">
-        <v>11.7385381688166</v>
+        <v>11.54600282720698</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>13.73020109012748</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>10.32716458535089</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>19.25978138807963</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>11.87077752199455</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>19.14768115319645</v>
+      </c>
+      <c r="R25">
+        <v>11.80414399989946</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
